--- a/500all/speech_level/speeches_CHRG-114hhrg97956.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97956.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="300">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412473</t>
   </si>
   <si>
-    <t>Trey Gowdy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gowdy. The Judiciary Committee will come to order.    Without objection, the Chair is authorized to declare a recess of the Committee at any time.    We welcome everyone to today's hearing on oversight of the United States Citizenship and Immigration Services.    I will begin by recognizing myself for an opening statement.    I first want to welcome our witness, Mr. Rodriguez.    U.S. Citizenship and Immigration Services, USCIS for short, is responsible for processing over 6 million immigration benefit applications per year as well as implementing programs important to immigration enforcement such as E-Verify and the Systematic Alien Verification for Entitlements Program, also known as SAVE.    Even without concerns being raised about terrorists seeking to exploit our refugee program or other aspects of our immigration system to enter the United States, processing such large numbers of immigration benefits applications would be a daunting task.    But those concerns are being raised, and they are on the forefront of my fellow citizens' minds. And, as a result, I will look forward to hearing what changes, if any, Director Rodriguez has or will soon implement at USCIS to help ensure terrorists are not approved for visas or other immigration benefits.    Many of the people I work for are particularly concerned about the prospect of a terrorist being resettled in our communities through the U.S. Refugee Admissions Program. And while I know we discussed this very issue weeks ago in the Subcommittee, those concerns are not going away. We are still looking for assurances that refugee program vetting is secure and effective.    Our concerns were only exacerbated by the remarks of our colleague, Homeland Security Chairman Mike McCaul, indicating that efforts to enter our country via fraud in the refugee program are currently--emphasize ``currently''--occurring.    Aside from security vetting concerns, fraud is always a problem in immigration benefits processing. I know the current and former Directors of USCIS have come before this Committee and said how fraud detection is a number-one priority, but that it is difficult to reconcile when we consistently hear from sources within USCIS that leadership will not pursue antifraud technology; that rubber-stamping of benefits applications is encouraged and even, in some instances, forced; and that USCIS' own antifraud unit, the Fraud Detection and National Security Directorate, is routinely sidelined and underutilized.    My constituents are proud that the United States has the most generous immigration policy in the world, and they are proud that the United States is a beacon of hope for foreign nationals seeking a better life. But they have a right to know that the immigration programs are being run in a manner that does not put them in danger, and right now they don't feel that way.    That is not to say that there is not some good news coming out of USCIS. The bright spot seems to be the E-Verify program, the use of which by employers is growing and which has had an extremely high successful verification rate. So I want to thank Director Rodriguez for his continued support of the E-Verify program, and I look forward to his testimony today.    With that, I would recognize the gentlelady from California, Ms. Lofgren.</t>
   </si>
   <si>
     <t>400245</t>
   </si>
   <si>
-    <t>Zoe Lofgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lofgren. Thank you, Mr. Chairman.    And, Director Rodriguez, it is good to see you here again. Welcome to the Immigration Subcommittee.    I am sure we will hear from you to the extent you are able to discuss security measures taken by the agency, especially in light of the news coming out of San Bernardino in my State, so I am going to focus on other elements that are part of your important mission.    As we know, a year ago, Secretary Johnson issued a series of directives, two of which have been held up in a dispute with Republican Governors. I won't address that because the Supreme Court is going to do so. I would like to talk about some of the issues that were not the subject of the litigation, specifically the parole program for immigrant entrepreneurs.    You know, one of the things that keep our country ahead of the game economically is the tech sector. And we have failed in our necessary effort to reform the immigration laws, which is really the result that is necessary. But the President was trying to think and Secretary Johnson was trying to think about things that could be done consistent with the current law that would make the economy work better, and one of the things was that parole program for immigrant entrepreneurs.    Now, a lot of companies that are household names are right in my neighborhood. Intel, Google, Yahoo, eBay, et cetera, et cetera, et cetera, were founded by innovative immigrants. They now employ tens of thousands of people. And, according to new research, immigrants have created half of America's top venture-backed companies, and those companies, in turn, have created an average of 150 jobs each. And, of course, when you look at some of them, like Google, it is tens of thousands.    So I am concerned that we haven't launched the entrepreneur program. I am eager to know where that stands, and maybe you will be able to address it.    I just want to touch on an action that I found gravely disappointing, and I realize it was not primarily the USCIS, but that was the October visa bulletin that was mistaken. Many people, immigrants, relied on the bulletin, as is reasonable to do, to their detriment.    For example, I met personally with an individual who is a post-doc doing cutting-edge neuroscience research funded by the Federal Government, funded by the NIH. He was going to file for his permanent residence based on the priority date. He did not review his H-1B visa. Then the visa bulletin was amended, and he is nowhere. He is nowhere. It is crazy that someone who has been here for years, who we are funding, who may get a Nobel prize, is just nowhere.    And so I don't know how many people like him were disadvantaged, but I am wondering what efforts the agency has thought about just to ameliorate the harm done by that mistake in the bulletin.    I am concerned that the program really set up to avoid the rush of refugees across our border who have come through Mexico fleeing violence, the alternative to process refugee applications in-country has not really worked. I don't think any child has been admitted yet. And I am concerned. Whatever light you can put on that situation, I would appreciate knowing.    And I also would like an update on the technology efforts that the agency has been making. When the President was elected, we were almost entirely paper-based, and I think we have made some progress but not as much as I expected or hoped that we would. And I am hoping you will be able to give us--you know, if you have a FedEx package, you can track where it is, you know, if you are expecting delivery. We haven't been able to deliver that kind of customer service, and I think the American public would be better served if we could.    So anything you can give us on those topics. And I know that you will talk about the security issues that the Chairman has also touched on.    With that, Mr. Chairman, I see my time is about to expire.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Rodriguez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rodriguez. I do.</t>
   </si>
   <si>
@@ -205,9 +196,6 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman.    Director Rodriguez, it seems to me that the President's words and actions are having an unfortunate impact on both immigration levels and on immigration policy. For example, the President's proposed amnesty led to a surge last year in illegal immigrants coming from Central America, and we're seeing a similar surge today.    The President's proposed changes in our Cuban policies have led to a recent surge in Cubans particularly coming across our southern border. Now, they are not illegal immigrants, but the point is it has led to a surge as a result of his policies.    Because of this Administration's lack of enforcing current laws, the number of sanctuary cities has doubled under this Administration. All that is worrisome to me, as is the Administration's policy toward Syrian refugees, which is what I want to ask you about.    In regard to those applying for asylum from Syria, do you feel that we are able to get as much information about their backgrounds as we are applicants for asylum from other countries?</t>
   </si>
   <si>
@@ -322,9 +310,6 @@
     <t xml:space="preserve">    Mr. Gowdy. The gentleman yields back.    The Chair will now recognize the gentleman from Michigan, Mr. Conyers.</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Mr. Chairman.    Welcome, Mr. Director.    Tell me, what is the Immigration Services doing to ensure that the Deferred Action for Childhood Arrivals renewal applications are adjudicated in a timely fashion so that young people don't suffer some of the grave consequences we've heard about?</t>
   </si>
   <si>
@@ -358,9 +343,6 @@
     <t>400220</t>
   </si>
   <si>
-    <t>Steve King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman.    And, Director Rodriguez, I thank you for coming back a second time within a month's period of time to testify to us here today.    I was listening to your earlier testimony, and I was interested in a statement that you made. ``Violent criminals can come from just about anywhere'' was a summation of that, although there was a little more detail in your statement, as I recall.    And I'm curious; that statement I don't have any doubt is true, but is there a higher incidence among those violent criminals--let's say, for example, are they more likely male or female?</t>
   </si>
   <si>
@@ -484,9 +466,6 @@
     <t xml:space="preserve">    Mr. Gowdy. The gentleman from Iowa yields back.    The Chair will now recognize the gentleman from Illinois, Mr. Gutierrez.</t>
   </si>
   <si>
-    <t>Gutierrez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gutierrez. Thank you.    Good to see you, Mr. Director. Thank you for coming and joining us and for your service.    So I won't try to figure out if you discriminate against Christians or Muslims, who you are showing some preference for. I think that's another hearing here. But I'd like to ask you about the new guidance on the 3- and the 10-year bar.    How far are you along to implementation of that new guidance, given that one of the most infamous and onerous impediments to legal immigration was changing the law in 1996 here with the 3- and the 10-year bar? Before that, there was no 3- and 10-year bar. Where are we along the way on giving guidance?</t>
   </si>
   <si>
@@ -571,9 +550,6 @@
     <t xml:space="preserve">    Mr. Gowdy. The gentleman yields back.    The Chair will now recognize the Chairman of the full Committee, the gentleman from Virginia, Mr. Goodlatte.</t>
   </si>
   <si>
-    <t>Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Mr. Chairman, thank you.    And, with your permission, I will give my opening statement, and then, if times allows after all the other Members have asked their questions, I will----</t>
   </si>
   <si>
@@ -589,9 +565,6 @@
     <t>412619</t>
   </si>
   <si>
-    <t>Ken Buck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Buck. Thank you, Mr. Chairman.    Good afternoon, Mr. Rodriguez.</t>
   </si>
   <si>
@@ -673,9 +646,6 @@
     <t>412419</t>
   </si>
   <si>
-    <t>Raúl R. Labrador</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Labrador. Thank you, Mr. Chairman.    And thank you, Mr. Rodriguez, for being here today.    I want to start with the affirmative asylum process. You are no doubt aware of the December 2 GAO report regarding fraud in the asylum process, and I'm sure you were just as troubled as I was by the ultimate conclusions.    I notice that there is significant backlog in affirmative asylum adjudications that linger way beyond the established timetables for adjudications. Can you provide this Committee with the exact number of cases currently pending adjudication for over 180 days?</t>
   </si>
   <si>
@@ -763,9 +733,6 @@
     <t>412653</t>
   </si>
   <si>
-    <t>John Ratcliffe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Chairman Gowdy.    Director Rodriguez, I want to follow up on a point raised by Chairman Goodlatte in his questioning to you, and it's about your stated testimony that your top priority is to implement the President's executive action on immigration.    I know you're a former prosecutor. I am, as well. We both took an oath to defend the Constitution. I was one of the first folks who questioned the constitutionality of the President's actions in that regard. And while that certainly may not matter to you, I think what should matter to you is the opinion of a Federal judge, followed by the opinion of a Federal circuit court of appeals, which ruled that the constitutionality of the President's action still remains very much in doubt. And so for you to make, you know, what would appear to be a highly questionable, likely unconstitutional action of the President your highest priority is troubling for me.    This is especially true when there's very little doubt that it was the President's action in that regard, regarding executive amnesty, that was the catalyst for the 2014 surge of unaccompanied alien children across our southern border. And even though the courts have now issued an injunction on the President's amnesty, the belief in other countries that you can still simply show up here in the United States and be granted amnesty and legal status is very much a pervasive belief in those countries.    And, accordingly, we are, as you know, still seeing a continued rise in the influx of unaccompanied alien children. According to the Department of Health and Human Services, in just the past 2 months, the number of unaccompanied minors crossing into the United States is 10,000, in just the last 2 months. That's a spike in activity.    And I know this is a fact because HHS contacted my office to let me know that, as a result of this dramatic increase, they're going to have to open additional facilities to handle the influx. And two of those facilities are going to be in Texas and are going to open on Friday. And one of those facilities is going to open on Friday in my district, in Royse City, Texas.    So, to be clear, we certainly didn't advocate for this, and we didn't support the policies, which have been the catalyst for this crisis, but, nevertheless, we're left with dealing with the aftermath of the President's actions in this regard. And, as I hope you can appreciate, this is an issue of great concern to my constituents.    So I want to ask you, the inspector general report back in 2012 found that 25 percent of the Immigration Service officers were pressured to, in their opinion, get to ``yes'' in handling questionable applications.    And I know that you were not the Director back in 2012, but given that the President's executive amnesty has been put on hold by the courts but your stated priority remains administering the President's executive actions in that regard, what assurance can you give me--I hope that you can--that presently staffers aren't being asked to approve questionable applications as a way to implement the President's intended policies in this regard?</t>
   </si>
   <si>
@@ -857,9 +824,6 @@
   </si>
   <si>
     <t>400199</t>
-  </si>
-  <si>
-    <t>Sheila Jackson Lee</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Jackson Lee. I want to thank the Chairman and Ranking Member for yielding.    I want to raise a question about the U visa and those who work with immigrant crime victims. And I have had legislation on that issue regarding benefits that immigrant victims, crime victims, can get.    But they were asking you to implement a parole program for those on the U visa waiting list. And can you tell us what is delaying implementing this program that is so vital to immigrant crime victims so that they can participate in the criminal justice system and render justice?    And what comes to mind, of course, first, is the domestic violence, the issue of being taken advantage of, robbed, assaulted, raped, based upon their vulnerability and their inability to testify.    And can I give you a series of questions? So it's the U visa and how long it's been taking to implement it. I'd be very interested in that.    We had the Director from Department of Justice from the EOIR, dealing with immigration courts, but I also know that you work, with your responsibilities, to deal with asylum seekers coming into the United States. And I just wanted a sort of forceful, if you can give it, confidence of the vetting process that you have for those refugees.    Some landed in Houston on Monday, and I hope that the response in Houston was a celebratory one. Because of the recent discussions--they happen to be from Syria--all the news cameras and stations were going to film or record their coming into the State.    I might say that we have been taking refugees in the State of Texas for a very long time, and I'm delighted that the State of Texas abandoned what was an illegal action to attempt to stop the refugees from coming in. But I'd be happy for a--as forceful and vigorous as you can.    My last question, which is one that I may want to probe a little bit more, but I really want to track the fiance visa. And let me be very clear. Over the years, I've seen a number of our men and women who have worn the uniform who have brought in their fiances from the place in which they have taken up arms. And these were wonderful marriages, and this was a wonderful tribute to the diversity of people.    But in the instance of the terrorists and this individual, I cannot help but wonder, having discovered publicly that this person had been radicalized for 1 or 2 years, as to where we were in that visa vetting program. Because it hurts the program, and it should not. But she went to very conspicuous places. She was an educated woman, which is unusual--when I say ``unusual,'' in terms of how far education is allowed to go in some communities.    So if you can at least give me some framework. And, as I understand it, her point of departure was Saudi Arabia. And so I am very disturbed that she even got into the United States and received a fiance visa. And maybe I should ask the question, and I can receive it in whatever form, but how long that process took.    So if you could just start quickly with the U visa and then the asylum question, refugee question, and then this K-1 visa, I'd appreciate it very much.</t>
@@ -1348,11 +1312,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1372,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1400,11 +1360,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1424,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1452,11 +1408,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1476,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1504,11 +1456,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1528,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1556,11 +1504,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1580,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1608,11 +1552,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1632,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1660,11 +1600,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1684,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1712,11 +1648,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1736,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1764,11 +1696,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1788,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1814,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1840,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1866,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1892,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1918,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1944,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1970,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1996,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2022,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2048,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2074,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2100,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2126,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2152,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2178,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2204,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2230,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2256,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2282,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2308,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2334,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2360,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2386,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2412,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2440,11 +2320,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2464,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2492,11 +2368,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2516,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
-      </c>
-      <c r="G47" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2542,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2568,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
         <v>62</v>
-      </c>
-      <c r="G49" t="s">
-        <v>63</v>
-      </c>
-      <c r="H49" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2594,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2620,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2646,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2672,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
-      </c>
-      <c r="G53" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2698,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2724,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G55" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2750,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2776,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
-      </c>
-      <c r="G57" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2802,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2828,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
-      </c>
-      <c r="G59" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2854,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2880,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
-      </c>
-      <c r="G61" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2906,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2932,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>62</v>
-      </c>
-      <c r="G63" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2958,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2984,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>62</v>
-      </c>
-      <c r="G65" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3010,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3036,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
-      </c>
-      <c r="G67" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3062,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3088,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>62</v>
-      </c>
-      <c r="G69" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3114,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3140,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
-      </c>
-      <c r="G71" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3166,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3192,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>62</v>
-      </c>
-      <c r="G73" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3218,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3244,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>62</v>
-      </c>
-      <c r="G75" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3270,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3296,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>62</v>
-      </c>
-      <c r="G77" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3322,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3348,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>62</v>
-      </c>
-      <c r="G79" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3374,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3400,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>62</v>
-      </c>
-      <c r="G81" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3426,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3452,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>62</v>
-      </c>
-      <c r="G83" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3478,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3504,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>62</v>
-      </c>
-      <c r="G85" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3532,11 +3328,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3556,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>102</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3582,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3608,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>102</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3634,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3660,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
         <v>102</v>
-      </c>
-      <c r="H91" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3686,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3712,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>102</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3740,11 +3520,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3764,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>102</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3792,11 +3568,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3816,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>113</v>
-      </c>
-      <c r="G97" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3842,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3868,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>113</v>
-      </c>
-      <c r="G99" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3894,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3920,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
+        <v>108</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
         <v>113</v>
-      </c>
-      <c r="G101" t="s">
-        <v>114</v>
-      </c>
-      <c r="H101" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3946,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3972,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>113</v>
-      </c>
-      <c r="G103" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3998,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4024,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>113</v>
-      </c>
-      <c r="G105" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4050,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4076,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>113</v>
-      </c>
-      <c r="G107" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4102,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4128,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>113</v>
-      </c>
-      <c r="G109" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4154,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4180,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>113</v>
-      </c>
-      <c r="G111" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4206,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4232,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>113</v>
-      </c>
-      <c r="G113" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4258,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4284,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>113</v>
-      </c>
-      <c r="G115" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4310,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4336,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>113</v>
-      </c>
-      <c r="G117" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4362,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4388,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>113</v>
-      </c>
-      <c r="G119" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4414,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4440,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>113</v>
-      </c>
-      <c r="G121" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4466,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4492,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>113</v>
-      </c>
-      <c r="G123" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4518,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4544,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>113</v>
-      </c>
-      <c r="G125" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4570,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4596,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>113</v>
-      </c>
-      <c r="G127" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4622,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4648,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>113</v>
-      </c>
-      <c r="G129" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4674,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4700,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>113</v>
-      </c>
-      <c r="G131" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4726,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4752,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>113</v>
-      </c>
-      <c r="G133" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4778,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4804,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>113</v>
-      </c>
-      <c r="G135" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4830,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4856,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>113</v>
-      </c>
-      <c r="G137" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4882,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4908,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>113</v>
-      </c>
-      <c r="G139" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4936,11 +4624,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4960,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s">
-        <v>156</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4986,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5012,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s">
-        <v>156</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5038,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5064,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s">
-        <v>156</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5090,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5116,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" t="s">
+        <v>16</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
         <v>156</v>
-      </c>
-      <c r="H147" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5142,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5168,13 +4838,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" t="s">
-        <v>156</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5194,13 +4862,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5220,13 +4886,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
-      </c>
-      <c r="G151" t="s">
-        <v>156</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5246,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5272,13 +4934,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s">
-        <v>156</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5298,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5324,13 +4982,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" t="s">
-        <v>156</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5350,13 +5006,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5376,13 +5030,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
-      </c>
-      <c r="G157" t="s">
-        <v>156</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5402,13 +5054,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5428,13 +5078,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>18</v>
-      </c>
-      <c r="G159" t="s">
-        <v>156</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5454,13 +5102,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5480,13 +5126,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
-      </c>
-      <c r="G161" t="s">
-        <v>156</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5506,13 +5150,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5532,13 +5174,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>18</v>
-      </c>
-      <c r="G163" t="s">
-        <v>156</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5558,13 +5198,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5584,13 +5222,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" t="s">
-        <v>156</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5610,13 +5246,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5636,13 +5270,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" t="s">
-        <v>156</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5664,11 +5296,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5688,13 +5318,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>18</v>
-      </c>
-      <c r="G169" t="s">
-        <v>185</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5716,11 +5344,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5740,13 +5366,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>18</v>
-      </c>
-      <c r="G171" t="s">
-        <v>185</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5768,11 +5392,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>12</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5792,13 +5414,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>190</v>
-      </c>
-      <c r="G173" t="s">
-        <v>191</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5818,13 +5438,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5844,13 +5462,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>190</v>
-      </c>
-      <c r="G175" t="s">
-        <v>191</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5870,13 +5486,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>18</v>
-      </c>
-      <c r="G176" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5896,13 +5510,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>190</v>
-      </c>
-      <c r="G177" t="s">
-        <v>191</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5922,13 +5534,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5948,13 +5558,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>190</v>
-      </c>
-      <c r="G179" t="s">
-        <v>191</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5974,13 +5582,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>18</v>
-      </c>
-      <c r="G180" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6000,13 +5606,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>190</v>
-      </c>
-      <c r="G181" t="s">
+        <v>182</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
         <v>191</v>
-      </c>
-      <c r="H181" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6026,13 +5630,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6052,13 +5654,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>190</v>
-      </c>
-      <c r="G183" t="s">
-        <v>191</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6078,13 +5678,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6104,13 +5702,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>190</v>
-      </c>
-      <c r="G185" t="s">
-        <v>191</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6130,13 +5726,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>18</v>
-      </c>
-      <c r="G186" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6156,13 +5750,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>190</v>
-      </c>
-      <c r="G187" t="s">
-        <v>191</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6182,13 +5774,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>18</v>
-      </c>
-      <c r="G188" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6208,13 +5798,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>190</v>
-      </c>
-      <c r="G189" t="s">
-        <v>191</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6234,13 +5822,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>18</v>
-      </c>
-      <c r="G190" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6260,13 +5846,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>190</v>
-      </c>
-      <c r="G191" t="s">
-        <v>191</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6286,13 +5870,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
-      </c>
-      <c r="G192" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6312,13 +5894,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>190</v>
-      </c>
-      <c r="G193" t="s">
-        <v>191</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6338,13 +5918,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>18</v>
-      </c>
-      <c r="G194" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6364,13 +5942,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>190</v>
-      </c>
-      <c r="G195" t="s">
-        <v>191</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6390,13 +5966,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6416,13 +5990,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>190</v>
-      </c>
-      <c r="G197" t="s">
-        <v>191</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6444,11 +6016,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6468,13 +6038,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>218</v>
-      </c>
-      <c r="G199" t="s">
-        <v>219</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6494,13 +6062,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>18</v>
-      </c>
-      <c r="G200" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6520,13 +6086,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>218</v>
-      </c>
-      <c r="G201" t="s">
-        <v>219</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6546,13 +6110,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>18</v>
-      </c>
-      <c r="G202" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6572,13 +6134,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>218</v>
-      </c>
-      <c r="G203" t="s">
-        <v>219</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6598,13 +6158,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>18</v>
-      </c>
-      <c r="G204" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6624,13 +6182,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>218</v>
-      </c>
-      <c r="G205" t="s">
-        <v>219</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6650,13 +6206,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>18</v>
-      </c>
-      <c r="G206" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6676,13 +6230,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
+        <v>209</v>
+      </c>
+      <c r="G207" t="s"/>
+      <c r="H207" t="s">
         <v>218</v>
-      </c>
-      <c r="G207" t="s">
-        <v>219</v>
-      </c>
-      <c r="H207" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6702,13 +6254,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>18</v>
-      </c>
-      <c r="G208" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6728,13 +6278,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>218</v>
-      </c>
-      <c r="G209" t="s">
-        <v>219</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6754,13 +6302,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>18</v>
-      </c>
-      <c r="G210" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6780,13 +6326,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>218</v>
-      </c>
-      <c r="G211" t="s">
-        <v>219</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6806,13 +6350,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>18</v>
-      </c>
-      <c r="G212" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6832,13 +6374,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>218</v>
-      </c>
-      <c r="G213" t="s">
-        <v>219</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6858,13 +6398,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>18</v>
-      </c>
-      <c r="G214" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6884,13 +6422,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>218</v>
-      </c>
-      <c r="G215" t="s">
-        <v>219</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6910,13 +6446,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>18</v>
-      </c>
-      <c r="G216" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6936,13 +6470,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>218</v>
-      </c>
-      <c r="G217" t="s">
-        <v>219</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6962,13 +6494,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>18</v>
-      </c>
-      <c r="G218" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6988,13 +6518,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>218</v>
-      </c>
-      <c r="G219" t="s">
-        <v>219</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7014,13 +6542,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>18</v>
-      </c>
-      <c r="G220" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7040,13 +6566,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>218</v>
-      </c>
-      <c r="G221" t="s">
-        <v>219</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7066,13 +6590,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>18</v>
-      </c>
-      <c r="G222" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7092,13 +6614,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>218</v>
-      </c>
-      <c r="G223" t="s">
-        <v>219</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7118,13 +6638,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>18</v>
-      </c>
-      <c r="G224" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7144,13 +6662,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>218</v>
-      </c>
-      <c r="G225" t="s">
-        <v>219</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7172,11 +6688,9 @@
       <c r="F226" t="s">
         <v>11</v>
       </c>
-      <c r="G226" t="s">
-        <v>12</v>
-      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7196,13 +6710,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>248</v>
-      </c>
-      <c r="G227" t="s">
-        <v>249</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7222,13 +6734,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>18</v>
-      </c>
-      <c r="G228" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7248,13 +6758,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>248</v>
-      </c>
-      <c r="G229" t="s">
-        <v>249</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7276,11 +6784,9 @@
       <c r="F230" t="s">
         <v>11</v>
       </c>
-      <c r="G230" t="s">
-        <v>12</v>
-      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7300,13 +6806,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>18</v>
-      </c>
-      <c r="G231" t="s">
-        <v>185</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7326,13 +6830,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>18</v>
-      </c>
-      <c r="G232" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7352,13 +6854,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>18</v>
-      </c>
-      <c r="G233" t="s">
-        <v>185</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7378,13 +6878,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>18</v>
-      </c>
-      <c r="G234" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7404,13 +6902,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>18</v>
-      </c>
-      <c r="G235" t="s">
-        <v>185</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7430,13 +6926,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>18</v>
-      </c>
-      <c r="G236" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7456,13 +6950,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>18</v>
-      </c>
-      <c r="G237" t="s">
-        <v>185</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7482,13 +6974,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>18</v>
-      </c>
-      <c r="G238" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7508,13 +6998,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>18</v>
-      </c>
-      <c r="G239" t="s">
-        <v>185</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7534,13 +7022,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>18</v>
-      </c>
-      <c r="G240" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7560,13 +7046,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>18</v>
-      </c>
-      <c r="G241" t="s">
-        <v>185</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7586,13 +7070,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>18</v>
-      </c>
-      <c r="G242" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7612,13 +7094,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>18</v>
-      </c>
-      <c r="G243" t="s">
-        <v>185</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7638,13 +7118,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>18</v>
-      </c>
-      <c r="G244" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7664,13 +7142,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>18</v>
-      </c>
-      <c r="G245" t="s">
-        <v>185</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7690,13 +7166,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>18</v>
-      </c>
-      <c r="G246" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7716,13 +7190,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>18</v>
-      </c>
-      <c r="G247" t="s">
-        <v>185</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7742,13 +7214,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>18</v>
-      </c>
-      <c r="G248" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7768,13 +7238,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>18</v>
-      </c>
-      <c r="G249" t="s">
-        <v>185</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7794,13 +7262,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>18</v>
-      </c>
-      <c r="G250" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7820,13 +7286,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>18</v>
-      </c>
-      <c r="G251" t="s">
-        <v>185</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7846,13 +7310,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>18</v>
-      </c>
-      <c r="G252" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7872,13 +7334,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>18</v>
-      </c>
-      <c r="G253" t="s">
-        <v>185</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7900,11 +7360,9 @@
       <c r="F254" t="s">
         <v>11</v>
       </c>
-      <c r="G254" t="s">
-        <v>12</v>
-      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7924,13 +7382,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>18</v>
-      </c>
-      <c r="G255" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7952,11 +7408,9 @@
       <c r="F256" t="s">
         <v>11</v>
       </c>
-      <c r="G256" t="s">
-        <v>12</v>
-      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7976,13 +7430,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>280</v>
-      </c>
-      <c r="G257" t="s">
-        <v>281</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8002,13 +7454,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>18</v>
-      </c>
-      <c r="G258" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8028,13 +7478,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>280</v>
-      </c>
-      <c r="G259" t="s">
-        <v>281</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8054,13 +7502,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>18</v>
-      </c>
-      <c r="G260" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8080,13 +7526,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>280</v>
-      </c>
-      <c r="G261" t="s">
-        <v>281</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8106,13 +7550,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>18</v>
-      </c>
-      <c r="G262" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8132,13 +7574,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>280</v>
-      </c>
-      <c r="G263" t="s">
-        <v>281</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8158,13 +7598,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>18</v>
-      </c>
-      <c r="G264" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8184,13 +7622,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>280</v>
-      </c>
-      <c r="G265" t="s">
-        <v>281</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8210,13 +7646,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>18</v>
-      </c>
-      <c r="G266" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8236,13 +7670,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>280</v>
-      </c>
-      <c r="G267" t="s">
-        <v>281</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8262,13 +7694,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>18</v>
-      </c>
-      <c r="G268" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8288,13 +7718,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>280</v>
-      </c>
-      <c r="G269" t="s">
+        <v>269</v>
+      </c>
+      <c r="G269" t="s"/>
+      <c r="H269" t="s">
         <v>281</v>
-      </c>
-      <c r="H269" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8316,11 +7744,9 @@
       <c r="F270" t="s">
         <v>11</v>
       </c>
-      <c r="G270" t="s">
-        <v>12</v>
-      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8340,13 +7766,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>280</v>
-      </c>
-      <c r="G271" t="s">
-        <v>281</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8368,11 +7792,9 @@
       <c r="F272" t="s">
         <v>11</v>
       </c>
-      <c r="G272" t="s">
-        <v>12</v>
-      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8392,13 +7814,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>280</v>
-      </c>
-      <c r="G273" t="s">
-        <v>281</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8420,11 +7840,9 @@
       <c r="F274" t="s">
         <v>11</v>
       </c>
-      <c r="G274" t="s">
-        <v>12</v>
-      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8444,13 +7862,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>280</v>
-      </c>
-      <c r="G275" t="s">
-        <v>281</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8470,13 +7886,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>18</v>
-      </c>
-      <c r="G276" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8496,13 +7910,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>280</v>
-      </c>
-      <c r="G277" t="s">
-        <v>281</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8522,13 +7934,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>18</v>
-      </c>
-      <c r="G278" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8548,13 +7958,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>280</v>
-      </c>
-      <c r="G279" t="s">
-        <v>281</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8576,11 +7984,9 @@
       <c r="F280" t="s">
         <v>11</v>
       </c>
-      <c r="G280" t="s">
-        <v>12</v>
-      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8600,13 +8006,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>280</v>
-      </c>
-      <c r="G281" t="s">
-        <v>281</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8626,13 +8030,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>280</v>
-      </c>
-      <c r="G282" t="s">
-        <v>281</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8654,11 +8056,9 @@
       <c r="F283" t="s">
         <v>11</v>
       </c>
-      <c r="G283" t="s">
-        <v>12</v>
-      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8678,13 +8078,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>14</v>
-      </c>
-      <c r="G284" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8706,11 +8104,9 @@
       <c r="F285" t="s">
         <v>11</v>
       </c>
-      <c r="G285" t="s">
-        <v>12</v>
-      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8730,13 +8126,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>18</v>
-      </c>
-      <c r="G286" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8758,11 +8152,9 @@
       <c r="F287" t="s">
         <v>11</v>
       </c>
-      <c r="G287" t="s">
-        <v>12</v>
-      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8782,13 +8174,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>18</v>
-      </c>
-      <c r="G288" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8810,11 +8200,9 @@
       <c r="F289" t="s">
         <v>11</v>
       </c>
-      <c r="G289" t="s">
-        <v>12</v>
-      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
